--- a/ZA1teste.xlsx
+++ b/ZA1teste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThinkPad\Desktop\prog\PythonMain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A0EA9E6-D5CF-4705-A880-E0E5018B66F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71194247-1C08-40D8-8340-9065978450A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2955" yWindow="1245" windowWidth="15375" windowHeight="7995" xr2:uid="{CB060FCB-7DBD-441B-A44C-84FBB693ED7D}"/>
   </bookViews>
@@ -20,22 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>TESTE 1 A</t>
   </si>
@@ -49,75 +39,23 @@
     <t>TESTE 4 A</t>
   </si>
   <si>
-    <t>TESTE 5 A</t>
-  </si>
-  <si>
-    <t>TESTE 1 B</t>
-  </si>
-  <si>
-    <t>TESTE 2 B</t>
-  </si>
-  <si>
-    <t>TESTE 3 B</t>
-  </si>
-  <si>
-    <t>TESTE 4 B</t>
-  </si>
-  <si>
-    <t>TESTE 5 B</t>
-  </si>
-  <si>
-    <t>TESTE 5 C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TESTE 4 C </t>
-  </si>
-  <si>
-    <t>TESTE 3 C</t>
-  </si>
-  <si>
-    <t>TESTE 2 C</t>
-  </si>
-  <si>
-    <t>TESTE 1 C</t>
-  </si>
-  <si>
-    <t>TESTE 1 D</t>
-  </si>
-  <si>
-    <t>TESTE 2 D</t>
-  </si>
-  <si>
-    <t>TESTE 3 D</t>
-  </si>
-  <si>
-    <t>TESTE 4 D</t>
-  </si>
-  <si>
-    <t>TESTE 5 D</t>
-  </si>
-  <si>
-    <t>TESTE 1 E</t>
-  </si>
-  <si>
-    <t>TESTE 2 E</t>
-  </si>
-  <si>
-    <t>TESTE 3 E</t>
-  </si>
-  <si>
-    <t>TESTE 4 E</t>
-  </si>
-  <si>
-    <t>TESTE 5 E</t>
+    <t>TESTE A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -145,8 +83,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,100 +400,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308769A3-69A4-41DA-98BE-1EA27831AE7A}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>